--- a/Team-Data/2013-14/2-9-2013-14.xlsx
+++ b/Team-Data/2013-14/2-9-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -756,7 +823,7 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>14</v>
@@ -774,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>20</v>
@@ -783,7 +850,7 @@
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
@@ -801,7 +868,7 @@
         <v>21</v>
       </c>
       <c r="AW2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -848,46 +915,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
         <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>0.346</v>
+        <v>0.353</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K3" t="n">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.331</v>
+        <v>0.329</v>
       </c>
       <c r="O3" t="n">
         <v>16.1</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R3" t="n">
         <v>11.5</v>
@@ -899,10 +966,10 @@
         <v>43.2</v>
       </c>
       <c r="U3" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V3" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W3" t="n">
         <v>7.2</v>
@@ -917,13 +984,13 @@
         <v>21.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
         <v>4</v>
@@ -932,10 +999,10 @@
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
@@ -944,28 +1011,28 @@
         <v>24</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>14</v>
@@ -980,10 +1047,10 @@
         <v>26</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX3" t="n">
         <v>16</v>
@@ -995,10 +1062,10 @@
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BB3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
         <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.469</v>
+        <v>0.458</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,49 +1115,49 @@
         <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>78.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L4" t="n">
         <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="O4" t="n">
         <v>18.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.763</v>
+        <v>0.768</v>
       </c>
       <c r="R4" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S4" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T4" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="U4" t="n">
         <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="W4" t="n">
         <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y4" t="n">
         <v>4.1</v>
@@ -1099,16 +1166,16 @@
         <v>22.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.4</v>
+        <v>-2.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1129,16 +1196,16 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>14</v>
       </c>
       <c r="AM4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
         <v>8</v>
@@ -1147,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR4" t="n">
         <v>25</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
@@ -1162,7 +1229,7 @@
         <v>19</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>12</v>
@@ -1174,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
@@ -1183,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -1290,10 +1357,10 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
         <v>20</v>
@@ -1302,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>27</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1329,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR5" t="n">
         <v>28</v>
@@ -1338,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="AT5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU5" t="n">
         <v>23</v>
@@ -1359,13 +1426,13 @@
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB5" t="n">
         <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
         <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H6" t="n">
         <v>48.8</v>
@@ -1412,46 +1479,46 @@
         <v>34.1</v>
       </c>
       <c r="J6" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K6" t="n">
         <v>0.422</v>
       </c>
       <c r="L6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M6" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O6" t="n">
         <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.772</v>
+        <v>0.768</v>
       </c>
       <c r="R6" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S6" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T6" t="n">
         <v>44.6</v>
       </c>
       <c r="U6" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V6" t="n">
         <v>15.7</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
         <v>5.2</v>
@@ -1460,22 +1527,22 @@
         <v>6.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
         <v>92.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
         <v>14</v>
@@ -1484,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1508,16 +1575,16 @@
         <v>14</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>10</v>
@@ -1529,10 +1596,10 @@
         <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -1576,22 +1643,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
         <v>33</v>
       </c>
       <c r="G7" t="n">
-        <v>0.353</v>
+        <v>0.34</v>
       </c>
       <c r="H7" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I7" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
         <v>85.7</v>
@@ -1600,40 +1667,40 @@
         <v>0.424</v>
       </c>
       <c r="L7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
         <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R7" t="n">
         <v>12.6</v>
       </c>
       <c r="S7" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T7" t="n">
         <v>44</v>
       </c>
       <c r="U7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V7" t="n">
         <v>14.6</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X7" t="n">
         <v>4</v>
@@ -1648,28 +1715,28 @@
         <v>19.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.8</v>
+        <v>-6.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI7" t="n">
         <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>22</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
@@ -1684,7 +1751,7 @@
         <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
@@ -1699,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="AS7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
         <v>11</v>
@@ -1708,19 +1775,19 @@
         <v>28</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
         <v>20</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
         <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>0.596</v>
+        <v>0.588</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L8" t="n">
         <v>8.4</v>
@@ -1788,7 +1855,7 @@
         <v>22.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O8" t="n">
         <v>17.1</v>
@@ -1797,25 +1864,25 @@
         <v>21.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="R8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T8" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U8" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W8" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
         <v>4.1</v>
@@ -1824,7 +1891,7 @@
         <v>3.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA8" t="n">
         <v>19.6</v>
@@ -1833,7 +1900,7 @@
         <v>104.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD8" t="n">
         <v>4</v>
@@ -1866,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>18</v>
@@ -1893,16 +1960,16 @@
         <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA8" t="n">
         <v>23</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>-0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
         <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
@@ -2051,13 +2118,13 @@
         <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>6</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>6</v>
@@ -2075,7 +2142,7 @@
         <v>22</v>
       </c>
       <c r="AW9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2087,13 +2154,13 @@
         <v>28</v>
       </c>
       <c r="BA9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB9" t="n">
         <v>10</v>
       </c>
       <c r="BC9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,10 +2279,10 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2233,7 +2300,7 @@
         <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>5</v>
@@ -2254,10 +2321,10 @@
         <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
         <v>8</v>
@@ -2266,7 +2333,7 @@
         <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>13</v>
@@ -2275,7 +2342,7 @@
         <v>16</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>4</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
@@ -2406,19 +2473,19 @@
         <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
         <v>25</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>23</v>
@@ -2445,13 +2512,13 @@
         <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ11" t="n">
         <v>24</v>
       </c>
       <c r="BA11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
         <v>11</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2621,7 +2688,7 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -2668,22 +2735,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="n">
         <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>0.78</v>
+        <v>0.796</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J13" t="n">
         <v>81</v>
@@ -2692,34 +2759,34 @@
         <v>0.454</v>
       </c>
       <c r="L13" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M13" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O13" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P13" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.778</v>
+        <v>0.781</v>
       </c>
       <c r="R13" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="T13" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U13" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V13" t="n">
         <v>15.3</v>
@@ -2731,22 +2798,22 @@
         <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z13" t="n">
         <v>20.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2758,10 +2825,10 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="n">
         <v>26</v>
@@ -2773,19 +2840,19 @@
         <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
         <v>22</v>
@@ -2794,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
         <v>22</v>
@@ -2809,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n">
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.66</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="J14" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.471</v>
+        <v>0.469</v>
       </c>
       <c r="L14" t="n">
         <v>8.199999999999999</v>
@@ -2883,67 +2950,67 @@
         <v>0.344</v>
       </c>
       <c r="O14" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="P14" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R14" t="n">
         <v>10.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>43.2</v>
+        <v>42.9</v>
       </c>
       <c r="U14" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="V14" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z14" t="n">
         <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.7</v>
+        <v>106.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2967,25 +3034,25 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT14" t="n">
         <v>16</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
         <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX14" t="n">
         <v>20</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>0.353</v>
+        <v>0.36</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,34 +3117,34 @@
         <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.443</v>
       </c>
       <c r="L15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O15" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q15" t="n">
         <v>0.759</v>
       </c>
       <c r="R15" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T15" t="n">
         <v>42.4</v>
@@ -3086,7 +3153,7 @@
         <v>23.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
         <v>6.6</v>
@@ -3095,22 +3162,22 @@
         <v>5.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA15" t="n">
         <v>19.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3125,7 +3192,7 @@
         <v>27</v>
       </c>
       <c r="AI15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
         <v>10</v>
@@ -3134,19 +3201,19 @@
         <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>4</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP15" t="n">
         <v>17</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>18</v>
       </c>
       <c r="AQ15" t="n">
         <v>17</v>
@@ -3158,13 +3225,13 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU15" t="n">
         <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3173,10 +3240,10 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" t="n">
         <v>27</v>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>0.54</v>
+        <v>0.551</v>
       </c>
       <c r="H16" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J16" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
@@ -3244,25 +3311,25 @@
         <v>14.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="O16" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P16" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.749</v>
+        <v>0.747</v>
       </c>
       <c r="R16" t="n">
         <v>11.8</v>
       </c>
       <c r="S16" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U16" t="n">
         <v>21.6</v>
@@ -3286,13 +3353,13 @@
         <v>18.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>94.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3304,7 +3371,7 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
         <v>16</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3331,7 +3398,7 @@
         <v>27</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>11</v>
@@ -3352,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3361,10 +3428,10 @@
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>5.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
@@ -3486,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>5</v>
@@ -3501,10 +3568,10 @@
         <v>13</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
         <v>13</v>
@@ -3531,7 +3598,7 @@
         <v>19</v>
       </c>
       <c r="AW17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX17" t="n">
         <v>22</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
@@ -3710,7 +3777,7 @@
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
@@ -3731,7 +3798,7 @@
         <v>29</v>
       </c>
       <c r="BC18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>3.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
         <v>18</v>
@@ -3853,22 +3920,22 @@
         <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ19" t="n">
         <v>3</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>16</v>
       </c>
       <c r="AM19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3889,10 +3956,10 @@
         <v>2</v>
       </c>
       <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
         <v>7</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>6</v>
       </c>
       <c r="AW19" t="n">
         <v>6</v>
@@ -3901,7 +3968,7 @@
         <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ19" t="n">
         <v>1</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -3942,52 +4009,52 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="n">
         <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.44</v>
+        <v>0.449</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J20" t="n">
         <v>83.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O20" t="n">
         <v>17.5</v>
       </c>
       <c r="P20" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.767</v>
+        <v>0.772</v>
       </c>
       <c r="R20" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S20" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T20" t="n">
         <v>42.7</v>
@@ -3999,10 +4066,10 @@
         <v>13.8</v>
       </c>
       <c r="W20" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X20" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y20" t="n">
         <v>6.2</v>
@@ -4014,19 +4081,19 @@
         <v>19.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG20" t="n">
         <v>19</v>
@@ -4050,16 +4117,16 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>5</v>
@@ -4074,10 +4141,10 @@
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -4089,7 +4156,7 @@
         <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB20" t="n">
         <v>17</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="n">
-        <v>0.392</v>
+        <v>0.4</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4163,25 +4230,25 @@
         <v>19.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U21" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V21" t="n">
         <v>13</v>
       </c>
       <c r="W21" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X21" t="n">
         <v>4.6</v>
@@ -4199,10 +4266,10 @@
         <v>97.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4214,10 +4281,10 @@
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
         <v>16</v>
@@ -4232,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,19 +4308,19 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
@@ -4268,7 +4335,7 @@
         <v>4</v>
       </c>
       <c r="AZ21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.774</v>
+        <v>0.769</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
@@ -4324,19 +4391,19 @@
         <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L22" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O22" t="n">
         <v>19.5</v>
@@ -4345,40 +4412,40 @@
         <v>24.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.801</v>
+        <v>0.803</v>
       </c>
       <c r="R22" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S22" t="n">
         <v>34.4</v>
       </c>
       <c r="T22" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U22" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
         <v>8.1</v>
       </c>
       <c r="X22" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y22" t="n">
         <v>3.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA22" t="n">
         <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.1</v>
+        <v>104.9</v>
       </c>
       <c r="AC22" t="n">
         <v>7.5</v>
@@ -4402,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4411,7 +4478,7 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN22" t="n">
         <v>15</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4555,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" t="n">
         <v>37</v>
       </c>
       <c r="G23" t="n">
-        <v>0.302</v>
+        <v>0.288</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J23" t="n">
         <v>82.2</v>
@@ -4515,16 +4582,16 @@
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O23" t="n">
         <v>16.6</v>
       </c>
       <c r="P23" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q23" t="n">
         <v>0.763</v>
@@ -4533,13 +4600,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T23" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U23" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
@@ -4554,7 +4621,7 @@
         <v>5.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA23" t="n">
         <v>18.9</v>
@@ -4563,7 +4630,7 @@
         <v>96.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.4</v>
+        <v>-5.5</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
@@ -4572,19 +4639,19 @@
         <v>28</v>
       </c>
       <c r="AF23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH23" t="n">
         <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4596,13 +4663,13 @@
         <v>20</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
         <v>22</v>
       </c>
       <c r="AP23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
         <v>14</v>
@@ -4611,22 +4678,22 @@
         <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
       </c>
       <c r="AX23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
         <v>26</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -4670,64 +4737,64 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" t="n">
-        <v>0.288</v>
+        <v>0.294</v>
       </c>
       <c r="H24" t="n">
         <v>48.7</v>
       </c>
       <c r="I24" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="J24" t="n">
-        <v>88.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.436</v>
+        <v>0.44</v>
       </c>
       <c r="L24" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M24" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.316</v>
+        <v>0.321</v>
       </c>
       <c r="O24" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P24" t="n">
         <v>23.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.715</v>
+        <v>0.712</v>
       </c>
       <c r="R24" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S24" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T24" t="n">
         <v>44.7</v>
       </c>
       <c r="U24" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V24" t="n">
         <v>17.5</v>
       </c>
       <c r="W24" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X24" t="n">
         <v>4.1</v>
@@ -4736,46 +4803,46 @@
         <v>7.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA24" t="n">
         <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="AC24" t="n">
-        <v>-9.6</v>
+        <v>-8.9</v>
       </c>
       <c r="AD24" t="n">
         <v>4</v>
       </c>
       <c r="AE24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF24" t="n">
         <v>28</v>
       </c>
       <c r="AG24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH24" t="n">
         <v>5</v>
       </c>
       <c r="AI24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ24" t="n">
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
         <v>21</v>
       </c>
       <c r="AM24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN24" t="n">
         <v>29</v>
@@ -4790,13 +4857,13 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AT24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
         <v>11</v>
@@ -4805,7 +4872,7 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX24" t="n">
         <v>25</v>
@@ -4823,7 +4890,7 @@
         <v>15</v>
       </c>
       <c r="BC24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>3.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4945,7 +5012,7 @@
         <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ25" t="n">
         <v>9</v>
@@ -4960,10 +5027,10 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
@@ -5124,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5142,7 +5209,7 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
@@ -5163,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -5216,64 +5283,64 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="J27" t="n">
         <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M27" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O27" t="n">
         <v>20.3</v>
       </c>
       <c r="P27" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R27" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
         <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U27" t="n">
         <v>19.6</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W27" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
@@ -5282,34 +5349,34 @@
         <v>5.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.2</v>
+        <v>101.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
@@ -5321,10 +5388,10 @@
         <v>24</v>
       </c>
       <c r="AM27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN27" t="n">
         <v>25</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5336,7 +5403,7 @@
         <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS27" t="n">
         <v>17</v>
@@ -5348,16 +5415,16 @@
         <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>6.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5503,7 +5570,7 @@
         <v>12</v>
       </c>
       <c r="AM28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5679,7 +5746,7 @@
         <v>18</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
         <v>10</v>
@@ -5703,7 +5770,7 @@
         <v>7</v>
       </c>
       <c r="AS29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT29" t="n">
         <v>13</v>
@@ -5727,10 +5794,10 @@
         <v>29</v>
       </c>
       <c r="BA29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-6.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH30" t="n">
         <v>23</v>
@@ -5861,7 +5928,7 @@
         <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5870,16 +5937,16 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP30" t="n">
         <v>22</v>
       </c>
       <c r="AQ30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" t="n">
         <v>25</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
       </c>
       <c r="I31" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J31" t="n">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L31" t="n">
         <v>7.7</v>
@@ -5983,19 +6050,19 @@
         <v>21.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R31" t="n">
         <v>10.9</v>
       </c>
       <c r="S31" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T31" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U31" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V31" t="n">
         <v>15</v>
@@ -6004,28 +6071,28 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
         <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
         <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
         <v>14</v>
@@ -6043,7 +6110,7 @@
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6052,7 +6119,7 @@
         <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
@@ -6073,7 +6140,7 @@
         <v>17</v>
       </c>
       <c r="AU31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
         <v>16</v>
@@ -6082,22 +6149,22 @@
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>25</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>18</v>
+      </c>
+      <c r="BC31" t="n">
         <v>16</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>26</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>19</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-9-2013-14</t>
+          <t>2014-02-09</t>
         </is>
       </c>
     </row>
